--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,232 +40,190 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>chaos</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>effective</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -623,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -742,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.88</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
         <v>31</v>
@@ -884,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8235294117647058</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1010,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6948051948051948</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D11">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>430</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.8627450980392157</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,745 +1150,505 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>132</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L13">
+        <v>66</v>
+      </c>
+      <c r="M13">
+        <v>66</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.796875</v>
+      </c>
+      <c r="L14">
+        <v>102</v>
+      </c>
+      <c r="M14">
+        <v>102</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L15">
+        <v>28</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>44</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>90</v>
+      </c>
+      <c r="M17">
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L20">
+        <v>75</v>
+      </c>
+      <c r="M20">
+        <v>75</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L24">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>35</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>0.65625</v>
+      </c>
+      <c r="L25">
+        <v>105</v>
+      </c>
+      <c r="M25">
+        <v>105</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27">
+        <v>0.625</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>9</v>
       </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L13">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L28">
+        <v>57</v>
+      </c>
+      <c r="M28">
+        <v>57</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>0.58</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M13">
-        <v>48</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L14">
-        <v>23</v>
-      </c>
-      <c r="M14">
-        <v>23</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L16">
-        <v>14</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>9</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3090128755364807</v>
-      </c>
-      <c r="C18">
-        <v>72</v>
-      </c>
-      <c r="D18">
-        <v>72</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>161</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>9</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L19">
-        <v>42</v>
-      </c>
-      <c r="M19">
-        <v>42</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>66</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L20">
-        <v>7</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>31</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.15</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>68</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>102</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.75</v>
-      </c>
-      <c r="L23">
-        <v>12</v>
-      </c>
-      <c r="M23">
-        <v>12</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L24">
-        <v>38</v>
-      </c>
-      <c r="M24">
-        <v>38</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>0.72</v>
-      </c>
-      <c r="L25">
-        <v>18</v>
-      </c>
-      <c r="M25">
-        <v>18</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="L26">
-        <v>41</v>
-      </c>
-      <c r="M26">
-        <v>41</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27">
-        <v>0.7</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28">
-        <v>0.7</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29">
-        <v>0.7</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L30">
-        <v>18</v>
-      </c>
-      <c r="M30">
-        <v>18</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L31">
-        <v>49</v>
-      </c>
       <c r="M31">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1945,18 +1663,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1968,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.6551724137931034</v>
+        <v>0.4856396866840731</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1994,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.6410256410256411</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2020,21 +1738,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2046,21 +1764,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5909090909090909</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2072,21 +1790,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2098,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5600000000000001</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2124,21 +1842,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.55</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2150,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5384615384615384</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2176,21 +1894,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5294117647058824</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2202,21 +1920,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5271317829457365</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L42">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2228,21 +1946,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5263157894736842</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2254,21 +1972,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.5151515151515151</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2280,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2306,21 +2024,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.4930555555555556</v>
+        <v>0.328125</v>
       </c>
       <c r="L46">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2332,21 +2050,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.4929577464788732</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L47">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2358,21 +2076,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.44</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="L48">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2384,21 +2102,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>872</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.4333333333333333</v>
+        <v>0.01775804661487236</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2410,21 +2128,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>885</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.4285714285714285</v>
+        <v>0.006532897806812879</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2436,163 +2154,59 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.375</v>
+        <v>0.0051513200257566</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.3478260869565217</v>
+        <v>0.004379105411323116</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K53">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="L53">
-        <v>11</v>
-      </c>
-      <c r="M53">
-        <v>11</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54">
-        <v>0.28125</v>
-      </c>
-      <c r="L54">
-        <v>9</v>
-      </c>
-      <c r="M54">
-        <v>9</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K55">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="L55">
-        <v>7</v>
-      </c>
-      <c r="M55">
-        <v>7</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K56">
-        <v>0.0187793427230047</v>
-      </c>
-      <c r="L56">
-        <v>8</v>
-      </c>
-      <c r="M56">
-        <v>8</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>418</v>
+        <v>3183</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,10 +43,13 @@
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>died</t>
@@ -55,114 +58,120 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
@@ -172,9 +181,6 @@
     <t>dear</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -184,19 +190,19 @@
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -205,7 +211,7 @@
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>join</t>
   </si>
   <si>
     <t>share</t>
@@ -214,6 +220,9 @@
     <t>store</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -221,9 +230,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -700,38 +706,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -742,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -800,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6232876712328768</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C7">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6111111111111112</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4827586206896552</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -968,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3421052631578947</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8913043478260869</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1666666666666667</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C11">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>430</v>
+        <v>153</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,37 +1106,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1587301587301587</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>426</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="K12">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L12">
         <v>30</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>159</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8839285714285714</v>
-      </c>
-      <c r="L12">
-        <v>99</v>
-      </c>
       <c r="M12">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1140939597315436</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,71 +1174,95 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.05952380952380952</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>237</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
         <v>0.8048780487804879</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>66</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>66</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14">
-        <v>0.796875</v>
-      </c>
-      <c r="L14">
-        <v>102</v>
-      </c>
-      <c r="M14">
-        <v>102</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1270,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1296,12 +1326,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18">
         <v>0.7391304347826086</v>
@@ -1327,16 +1357,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1348,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.7075471698113207</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1374,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.704225352112676</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1400,38 +1430,38 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="L22">
+        <v>103</v>
+      </c>
+      <c r="M22">
+        <v>103</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>39</v>
-      </c>
-      <c r="K22">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L22">
-        <v>19</v>
-      </c>
-      <c r="M22">
-        <v>19</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>0.6944444444444444</v>
@@ -1457,16 +1487,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6862745098039216</v>
+        <v>0.6875</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1478,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.65625</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1504,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6349206349206349</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1530,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1556,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.6063829787234043</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1582,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1608,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1634,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1660,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1686,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4856396866840731</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1712,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1738,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.4699738903394256</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1764,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1790,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.4441176470588235</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L37">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1816,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>189</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.4157303370786517</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1842,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>52</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.4153846153846154</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1868,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.4101694915254237</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L40">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M40">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1894,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.4</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1920,12 +1950,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K42">
         <v>0.3714285714285714</v>
@@ -1951,16 +1981,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.3698630136986301</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1972,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.3461538461538461</v>
+        <v>0.359375</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1998,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.3347280334728033</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L45">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2024,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.328125</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2050,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>43</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.2285714285714286</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2076,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.02460850111856823</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2102,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>872</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.01775804661487236</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2128,85 +2158,111 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>885</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.006532897806812879</v>
+        <v>0.02003081664098613</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M50">
         <v>14</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>2129</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.0051513200257566</v>
+        <v>0.01775804661487236</v>
       </c>
       <c r="L51">
         <v>16</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>3090</v>
+        <v>885</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.004379105411323116</v>
+        <v>0.006999533364442371</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N52">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>3183</v>
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53">
+        <v>0.004186795491143317</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="N53">
+        <v>0.87</v>
+      </c>
+      <c r="O53">
+        <v>0.13</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3092</v>
       </c>
     </row>
   </sheetData>
